--- a/scr/data/20240808_mc_df.xlsx
+++ b/scr/data/20240808_mc_df.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thuduong\Learning\steel-optima\scr\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thuduong\Learning\test_cutting_stock_optima\scr\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D91D0D0-0096-409F-9A1C-6166B67033A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738CB2C7-CB42-4973-BA62-94642AD6AC00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{7A56DEF3-8914-4705-A4EF-CE8A8394A2E2}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="208">
   <si>
     <t>NQS</t>
   </si>
@@ -585,18 +585,98 @@
   </si>
   <si>
     <t>POSCO+JSH270C-PO+2.3</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>CSC+JSH590R-PO+2</t>
+  </si>
+  <si>
+    <t>CSC JSH590R-PO 2.00</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>X3</t>
+  </si>
+  <si>
+    <t>POSCO JSH270C-PO 2.60</t>
+  </si>
+  <si>
+    <t>X4</t>
+  </si>
+  <si>
+    <t>X5</t>
+  </si>
+  <si>
+    <t>CSVC+JSH270C-PO+1.6</t>
+  </si>
+  <si>
+    <t>CSVC JSH270C-PO 1.60</t>
+  </si>
+  <si>
+    <t>X6</t>
+  </si>
+  <si>
+    <t>X7</t>
+  </si>
+  <si>
+    <t>CSVC+JSH270C-PO+2</t>
+  </si>
+  <si>
+    <t>CSVC JSH270C-PO 2.00</t>
+  </si>
+  <si>
+    <t>X8</t>
+  </si>
+  <si>
+    <t>X9</t>
+  </si>
+  <si>
+    <t>X10</t>
+  </si>
+  <si>
+    <t>POSCOVN+SPCC-SD+1</t>
+  </si>
+  <si>
+    <t>POSCOVN SPCC-SD 1.00</t>
+  </si>
+  <si>
+    <t>X11</t>
+  </si>
+  <si>
+    <t>POSCOVST+SUS409L-2D+1</t>
+  </si>
+  <si>
+    <t>POSCOVST SUS409L-2D 1.00</t>
+  </si>
+  <si>
+    <t>X12</t>
+  </si>
+  <si>
+    <t>X13</t>
+  </si>
+  <si>
+    <t>POSCOVST SUS409L-2D 2.00</t>
+  </si>
+  <si>
+    <t>X14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="[$-809]dd\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -629,6 +709,16 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val=".VnTime"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val=".VnTime"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -699,13 +789,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -733,12 +827,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="8">
+    <cellStyle name="Comma 2" xfId="4" xr:uid="{37F92DE6-20C6-4081-870A-9870A7C4F7A7}"/>
     <cellStyle name="Comma 3" xfId="1" xr:uid="{46C9BCAD-B58A-4407-AC32-1619FF82A96A}"/>
     <cellStyle name="Comma 4 3 2 2 3 2 2" xfId="2" xr:uid="{595852F0-2FC8-469F-AD34-7EED7118C6C4}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="5" xr:uid="{B4376DAC-24B5-40B2-BCFC-1043006EE80B}"/>
+    <cellStyle name="Normal 2 2" xfId="6" xr:uid="{6C047554-2852-4E8A-B18D-6E19CA562F96}"/>
     <cellStyle name="Percent 2" xfId="3" xr:uid="{7DDA90C2-D340-472F-AEDC-BD1D4DFDFDB5}"/>
+    <cellStyle name="Percent 3" xfId="7" xr:uid="{F22EED62-D92C-4AE5-97F2-9D3F848CB64E}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1065,24 +1179,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DFE70BD-6B54-4DE4-BF4E-0C04440D7440}">
-  <dimension ref="A1:M184"/>
+  <dimension ref="A1:P197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L184" sqref="L184"/>
+    <sheetView tabSelected="1" topLeftCell="C166" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L201" sqref="L201"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
     <col min="2" max="3" width="27.33203125" style="3" customWidth="1"/>
     <col min="4" max="10" width="20.6640625" style="3" customWidth="1"/>
     <col min="11" max="11" width="15.77734375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="13.5546875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="37" style="3" customWidth="1"/>
     <col min="13" max="13" width="23.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>103</v>
       </c>
@@ -1121,7 +1235,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13">
       <c r="A2" s="4" t="s">
         <v>48</v>
       </c>
@@ -1161,7 +1275,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13">
       <c r="A3" s="4" t="s">
         <v>50</v>
       </c>
@@ -1201,7 +1315,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13">
       <c r="A4" s="4" t="s">
         <v>51</v>
       </c>
@@ -1241,7 +1355,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13">
       <c r="A5" s="4" t="s">
         <v>52</v>
       </c>
@@ -1281,7 +1395,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13">
       <c r="A6" s="4" t="s">
         <v>53</v>
       </c>
@@ -1321,7 +1435,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13">
       <c r="A7" s="4" t="s">
         <v>54</v>
       </c>
@@ -1361,7 +1475,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13">
       <c r="A8" s="4" t="s">
         <v>55</v>
       </c>
@@ -1401,7 +1515,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13">
       <c r="A9" s="4" t="s">
         <v>56</v>
       </c>
@@ -1441,7 +1555,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13">
       <c r="A10" s="4" t="s">
         <v>57</v>
       </c>
@@ -1481,7 +1595,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13">
       <c r="A11" s="4" t="s">
         <v>58</v>
       </c>
@@ -1521,7 +1635,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13">
       <c r="A12" s="4" t="s">
         <v>59</v>
       </c>
@@ -1561,7 +1675,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13">
       <c r="A13" s="4" t="s">
         <v>60</v>
       </c>
@@ -1601,7 +1715,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13">
       <c r="A14" s="4" t="s">
         <v>61</v>
       </c>
@@ -1641,7 +1755,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13">
       <c r="A15" s="4" t="s">
         <v>62</v>
       </c>
@@ -1681,7 +1795,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13">
       <c r="A16" s="4" t="s">
         <v>63</v>
       </c>
@@ -1721,7 +1835,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12">
       <c r="A17" s="4" t="s">
         <v>64</v>
       </c>
@@ -1761,7 +1875,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12">
       <c r="A18" s="4" t="s">
         <v>65</v>
       </c>
@@ -1801,7 +1915,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12">
       <c r="A19" s="4" t="s">
         <v>66</v>
       </c>
@@ -1841,7 +1955,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12">
       <c r="A20" s="4" t="s">
         <v>67</v>
       </c>
@@ -1881,7 +1995,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12">
       <c r="A21" s="4" t="s">
         <v>68</v>
       </c>
@@ -1921,7 +2035,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12">
       <c r="A22" s="4" t="s">
         <v>69</v>
       </c>
@@ -1961,7 +2075,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12">
       <c r="A23" s="4" t="s">
         <v>72</v>
       </c>
@@ -2001,7 +2115,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12">
       <c r="A24" s="4" t="s">
         <v>73</v>
       </c>
@@ -2041,7 +2155,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12">
       <c r="A25" s="4" t="s">
         <v>75</v>
       </c>
@@ -2081,7 +2195,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12">
       <c r="A26" s="4" t="s">
         <v>76</v>
       </c>
@@ -2121,7 +2235,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12">
       <c r="A27" s="4" t="s">
         <v>77</v>
       </c>
@@ -2161,7 +2275,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12">
       <c r="A28" s="4" t="s">
         <v>79</v>
       </c>
@@ -2201,7 +2315,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12">
       <c r="A29" s="4" t="s">
         <v>80</v>
       </c>
@@ -2241,7 +2355,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12">
       <c r="A30" s="4" t="s">
         <v>81</v>
       </c>
@@ -2281,7 +2395,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12">
       <c r="A31" s="4" t="s">
         <v>82</v>
       </c>
@@ -2321,7 +2435,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12">
       <c r="A32" s="4" t="s">
         <v>83</v>
       </c>
@@ -2361,7 +2475,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12">
       <c r="A33" s="4" t="s">
         <v>84</v>
       </c>
@@ -2401,7 +2515,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12">
       <c r="A34" s="4" t="s">
         <v>85</v>
       </c>
@@ -2441,7 +2555,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12">
       <c r="A35" s="4" t="s">
         <v>86</v>
       </c>
@@ -2481,7 +2595,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12">
       <c r="A36" s="4" t="s">
         <v>87</v>
       </c>
@@ -2521,7 +2635,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12">
       <c r="A37" s="4" t="s">
         <v>88</v>
       </c>
@@ -2561,7 +2675,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12">
       <c r="A38" s="4" t="s">
         <v>89</v>
       </c>
@@ -2601,7 +2715,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12">
       <c r="A39" s="4" t="s">
         <v>90</v>
       </c>
@@ -2641,7 +2755,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12">
       <c r="A40" s="4" t="s">
         <v>91</v>
       </c>
@@ -2681,7 +2795,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12">
       <c r="A41" s="4" t="s">
         <v>93</v>
       </c>
@@ -2721,7 +2835,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12">
       <c r="A42" s="4" t="s">
         <v>94</v>
       </c>
@@ -2761,7 +2875,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12">
       <c r="A43" s="4" t="s">
         <v>95</v>
       </c>
@@ -2801,7 +2915,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12">
       <c r="A44" s="4" t="s">
         <v>96</v>
       </c>
@@ -2841,7 +2955,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12">
       <c r="A45" s="4" t="s">
         <v>114</v>
       </c>
@@ -2881,7 +2995,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12">
       <c r="A46" s="4" t="s">
         <v>97</v>
       </c>
@@ -2921,7 +3035,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12">
       <c r="A47" s="4" t="s">
         <v>98</v>
       </c>
@@ -2961,7 +3075,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12">
       <c r="A48" s="4" t="s">
         <v>99</v>
       </c>
@@ -3001,7 +3115,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12">
       <c r="A49" s="4" t="s">
         <v>100</v>
       </c>
@@ -3041,7 +3155,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12">
       <c r="A50" s="4" t="s">
         <v>101</v>
       </c>
@@ -3081,7 +3195,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12">
       <c r="A51" s="4" t="s">
         <v>116</v>
       </c>
@@ -3121,7 +3235,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12">
       <c r="A52" s="4" t="s">
         <v>117</v>
       </c>
@@ -3161,7 +3275,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12">
       <c r="A53" s="4" t="s">
         <v>118</v>
       </c>
@@ -3201,7 +3315,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12">
       <c r="A54" s="4" t="s">
         <v>121</v>
       </c>
@@ -3241,7 +3355,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12">
       <c r="A55" s="4" t="s">
         <v>122</v>
       </c>
@@ -3281,7 +3395,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12">
       <c r="A56" s="4" t="s">
         <v>123</v>
       </c>
@@ -3321,7 +3435,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12">
       <c r="A57" s="4" t="s">
         <v>124</v>
       </c>
@@ -3361,7 +3475,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12">
       <c r="A58" s="4" t="s">
         <v>125</v>
       </c>
@@ -3401,7 +3515,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12">
       <c r="A59" s="4" t="s">
         <v>1</v>
       </c>
@@ -3441,7 +3555,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12">
       <c r="A60" s="4" t="s">
         <v>4</v>
       </c>
@@ -3481,7 +3595,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12">
       <c r="A61" s="4" t="s">
         <v>5</v>
       </c>
@@ -3521,7 +3635,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12">
       <c r="A62" s="4" t="s">
         <v>6</v>
       </c>
@@ -3561,7 +3675,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12">
       <c r="A63" s="4" t="s">
         <v>7</v>
       </c>
@@ -3601,7 +3715,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12">
       <c r="A64" s="4" t="s">
         <v>8</v>
       </c>
@@ -3641,7 +3755,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12">
       <c r="A65" s="4" t="s">
         <v>9</v>
       </c>
@@ -3681,7 +3795,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12">
       <c r="A66" s="4" t="s">
         <v>10</v>
       </c>
@@ -3721,7 +3835,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12">
       <c r="A67" s="4" t="s">
         <v>11</v>
       </c>
@@ -3761,7 +3875,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12">
       <c r="A68" s="4" t="s">
         <v>12</v>
       </c>
@@ -3801,7 +3915,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12">
       <c r="A69" s="4" t="s">
         <v>14</v>
       </c>
@@ -3841,7 +3955,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12">
       <c r="A70" s="4" t="s">
         <v>17</v>
       </c>
@@ -3881,7 +3995,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12">
       <c r="A71" s="4" t="s">
         <v>18</v>
       </c>
@@ -3921,7 +4035,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12">
       <c r="A72" s="4" t="s">
         <v>20</v>
       </c>
@@ -3961,7 +4075,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12">
       <c r="A73" s="4" t="s">
         <v>21</v>
       </c>
@@ -4001,7 +4115,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12">
       <c r="A74" s="4" t="s">
         <v>23</v>
       </c>
@@ -4041,7 +4155,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12">
       <c r="A75" s="4" t="s">
         <v>24</v>
       </c>
@@ -4081,7 +4195,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12">
       <c r="A76" s="4" t="s">
         <v>25</v>
       </c>
@@ -4121,7 +4235,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12">
       <c r="A77" s="4" t="s">
         <v>26</v>
       </c>
@@ -4161,7 +4275,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12">
       <c r="A78" s="4" t="s">
         <v>27</v>
       </c>
@@ -4201,7 +4315,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12">
       <c r="A79" s="4" t="s">
         <v>28</v>
       </c>
@@ -4241,7 +4355,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12">
       <c r="A80" s="4" t="s">
         <v>29</v>
       </c>
@@ -4281,7 +4395,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12">
       <c r="A81" s="4" t="s">
         <v>30</v>
       </c>
@@ -4321,7 +4435,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12">
       <c r="A82" s="4" t="s">
         <v>31</v>
       </c>
@@ -4361,7 +4475,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12">
       <c r="A83" s="4" t="s">
         <v>32</v>
       </c>
@@ -4401,7 +4515,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12">
       <c r="A84" s="4" t="s">
         <v>34</v>
       </c>
@@ -4441,7 +4555,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12">
       <c r="A85" s="4" t="s">
         <v>35</v>
       </c>
@@ -4481,7 +4595,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12">
       <c r="A86" s="4" t="s">
         <v>36</v>
       </c>
@@ -4521,7 +4635,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12">
       <c r="A87" s="4" t="s">
         <v>37</v>
       </c>
@@ -4561,7 +4675,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12">
       <c r="A88" s="4" t="s">
         <v>38</v>
       </c>
@@ -4601,7 +4715,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12">
       <c r="A89" s="4" t="s">
         <v>39</v>
       </c>
@@ -4641,7 +4755,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12">
       <c r="A90" s="4" t="s">
         <v>40</v>
       </c>
@@ -4681,7 +4795,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12">
       <c r="A91" s="4" t="s">
         <v>41</v>
       </c>
@@ -4721,7 +4835,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12">
       <c r="A92" s="4" t="s">
         <v>42</v>
       </c>
@@ -4761,7 +4875,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12">
       <c r="A93" s="4" t="s">
         <v>43</v>
       </c>
@@ -4801,7 +4915,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12">
       <c r="A94" s="4" t="s">
         <v>44</v>
       </c>
@@ -4841,7 +4955,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12">
       <c r="A95" s="4" t="s">
         <v>45</v>
       </c>
@@ -4881,7 +4995,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12">
       <c r="A96" s="4" t="s">
         <v>46</v>
       </c>
@@ -4921,7 +5035,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12">
       <c r="A97" s="4" t="s">
         <v>126</v>
       </c>
@@ -4961,7 +5075,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12">
       <c r="A98" s="4" t="s">
         <v>128</v>
       </c>
@@ -5001,7 +5115,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12">
       <c r="A99" s="4" t="s">
         <v>129</v>
       </c>
@@ -5041,7 +5155,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12">
       <c r="A100" s="4" t="s">
         <v>130</v>
       </c>
@@ -5081,7 +5195,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12">
       <c r="A101" s="4" t="s">
         <v>131</v>
       </c>
@@ -5121,7 +5235,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12">
       <c r="A102" s="4" t="s">
         <v>132</v>
       </c>
@@ -5161,7 +5275,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12">
       <c r="A103" s="4" t="s">
         <v>134</v>
       </c>
@@ -5201,7 +5315,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12">
       <c r="A104" s="4" t="s">
         <v>136</v>
       </c>
@@ -5241,7 +5355,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12">
       <c r="A105" s="4" t="s">
         <v>137</v>
       </c>
@@ -5281,7 +5395,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12">
       <c r="A106" s="4" t="s">
         <v>138</v>
       </c>
@@ -5321,7 +5435,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12">
       <c r="A107" s="4" t="s">
         <v>139</v>
       </c>
@@ -5361,7 +5475,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12">
       <c r="A108" s="4" t="s">
         <v>140</v>
       </c>
@@ -5401,7 +5515,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12">
       <c r="A109" s="4" t="s">
         <v>141</v>
       </c>
@@ -5441,7 +5555,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12">
       <c r="A110" s="4" t="s">
         <v>142</v>
       </c>
@@ -5481,7 +5595,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12">
       <c r="A111" s="4">
         <v>4042401100000</v>
       </c>
@@ -5521,7 +5635,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12">
       <c r="A112" s="4">
         <v>4042401200000</v>
       </c>
@@ -5561,7 +5675,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12">
       <c r="A113" s="4">
         <v>4042401300000</v>
       </c>
@@ -5601,7 +5715,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12">
       <c r="A114" s="4">
         <v>4042401500000</v>
       </c>
@@ -5641,7 +5755,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12">
       <c r="A115" s="4">
         <v>4042401800000</v>
       </c>
@@ -5681,7 +5795,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12">
       <c r="A116" s="4">
         <v>4060301500000</v>
       </c>
@@ -5721,7 +5835,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12">
       <c r="A117" s="4">
         <v>4060301600000</v>
       </c>
@@ -5761,7 +5875,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12">
       <c r="A118" s="4">
         <v>4060301700000</v>
       </c>
@@ -5801,7 +5915,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12">
       <c r="A119" s="4">
         <v>4060301800000</v>
       </c>
@@ -5841,7 +5955,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12">
       <c r="A120" s="4">
         <v>4060301900000</v>
       </c>
@@ -5881,7 +5995,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12">
       <c r="A121" s="4">
         <v>4060302000000</v>
       </c>
@@ -5921,7 +6035,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12">
       <c r="A122" s="4">
         <v>4060302100000</v>
       </c>
@@ -5961,7 +6075,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12">
       <c r="A123" s="4">
         <v>4060302200000</v>
       </c>
@@ -6001,7 +6115,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12">
       <c r="A124" s="4">
         <v>4060302300000</v>
       </c>
@@ -6041,7 +6155,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12">
       <c r="A125" s="4">
         <v>4060302400000</v>
       </c>
@@ -6081,7 +6195,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12">
       <c r="A126" s="4">
         <v>4060302500000</v>
       </c>
@@ -6121,7 +6235,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12">
       <c r="A127" s="4">
         <v>4060302600000</v>
       </c>
@@ -6161,7 +6275,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12">
       <c r="A128" s="4" t="s">
         <v>143</v>
       </c>
@@ -6201,7 +6315,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12">
       <c r="A129" s="4" t="s">
         <v>144</v>
       </c>
@@ -6241,7 +6355,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12">
       <c r="A130" s="4" t="s">
         <v>145</v>
       </c>
@@ -6281,7 +6395,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12">
       <c r="A131" s="4" t="s">
         <v>146</v>
       </c>
@@ -6321,7 +6435,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12">
       <c r="A132" s="4" t="s">
         <v>147</v>
       </c>
@@ -6361,7 +6475,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12">
       <c r="A133" s="4" t="s">
         <v>148</v>
       </c>
@@ -6401,7 +6515,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12">
       <c r="A134" s="4" t="s">
         <v>149</v>
       </c>
@@ -6441,7 +6555,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:12">
       <c r="A135" s="4" t="s">
         <v>150</v>
       </c>
@@ -6481,7 +6595,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:12">
       <c r="A136" s="4" t="s">
         <v>151</v>
       </c>
@@ -6521,7 +6635,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:12">
       <c r="A137" s="4" t="s">
         <v>152</v>
       </c>
@@ -6561,7 +6675,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:12">
       <c r="A138" s="4" t="s">
         <v>153</v>
       </c>
@@ -6601,7 +6715,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12">
       <c r="A139" s="4" t="s">
         <v>154</v>
       </c>
@@ -6641,7 +6755,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:12">
       <c r="A140" s="4" t="s">
         <v>155</v>
       </c>
@@ -6681,7 +6795,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:12">
       <c r="A141" s="4" t="s">
         <v>156</v>
       </c>
@@ -6721,7 +6835,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:12">
       <c r="A142" s="4" t="s">
         <v>157</v>
       </c>
@@ -6761,7 +6875,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:12">
       <c r="A143" s="4">
         <v>4042402100000</v>
       </c>
@@ -6801,7 +6915,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:12">
       <c r="A144" s="4">
         <v>4042402200000</v>
       </c>
@@ -6841,7 +6955,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:12">
       <c r="A145" s="4">
         <v>4042402300000</v>
       </c>
@@ -6881,7 +6995,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:12">
       <c r="A146" s="4">
         <v>4042402400000</v>
       </c>
@@ -6921,7 +7035,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:12">
       <c r="A147" s="4">
         <v>4042402500000</v>
       </c>
@@ -6961,7 +7075,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:12">
       <c r="A148" s="4">
         <v>4042402600000</v>
       </c>
@@ -7001,7 +7115,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:12">
       <c r="A149" s="4">
         <v>4042402800000</v>
       </c>
@@ -7041,7 +7155,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:12">
       <c r="A150" s="4">
         <v>4042403000000</v>
       </c>
@@ -7081,7 +7195,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:12">
       <c r="A151" s="4">
         <v>4042403200000</v>
       </c>
@@ -7121,7 +7235,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:12">
       <c r="A152" s="4">
         <v>4042403500000</v>
       </c>
@@ -7161,7 +7275,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:12">
       <c r="A153" s="4">
         <v>4042403600000</v>
       </c>
@@ -7201,7 +7315,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:12">
       <c r="A154" s="4">
         <v>4060300300000</v>
       </c>
@@ -7241,7 +7355,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:12">
       <c r="A155" s="4">
         <v>4060300400000</v>
       </c>
@@ -7281,7 +7395,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:12">
       <c r="A156" s="4">
         <v>4060300500000</v>
       </c>
@@ -7321,7 +7435,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:12">
       <c r="A157" s="4">
         <v>4060300600000</v>
       </c>
@@ -7361,7 +7475,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:12">
       <c r="A158" s="4">
         <v>4060300700000</v>
       </c>
@@ -7401,7 +7515,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:12">
       <c r="A159" s="4">
         <v>4060300800000</v>
       </c>
@@ -7441,7 +7555,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:12">
       <c r="A160" s="4">
         <v>4060300900000</v>
       </c>
@@ -7481,7 +7595,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13">
       <c r="A161" s="4">
         <v>4060301000000</v>
       </c>
@@ -7521,7 +7635,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13">
       <c r="A162" s="4">
         <v>4060301100000</v>
       </c>
@@ -7561,7 +7675,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13">
       <c r="A163" s="4">
         <v>4060301200000</v>
       </c>
@@ -7601,7 +7715,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13">
       <c r="A164" s="4">
         <v>4060301300000</v>
       </c>
@@ -7641,7 +7755,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13">
       <c r="A165" s="4">
         <v>4060301400000</v>
       </c>
@@ -7681,7 +7795,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13">
       <c r="A166" s="4" t="s">
         <v>158</v>
       </c>
@@ -7721,7 +7835,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13">
       <c r="A167" s="4" t="s">
         <v>159</v>
       </c>
@@ -7761,7 +7875,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13">
       <c r="A168" s="4" t="s">
         <v>160</v>
       </c>
@@ -7801,7 +7915,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13">
       <c r="A169" s="4" t="s">
         <v>161</v>
       </c>
@@ -7841,7 +7955,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13">
       <c r="A170" s="4" t="s">
         <v>162</v>
       </c>
@@ -7881,7 +7995,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13">
       <c r="A171" s="4" t="s">
         <v>163</v>
       </c>
@@ -7921,7 +8035,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13">
       <c r="A172" s="4" t="s">
         <v>164</v>
       </c>
@@ -7961,7 +8075,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13">
       <c r="A173" s="4" t="s">
         <v>165</v>
       </c>
@@ -8001,7 +8115,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13">
       <c r="A174" s="4" t="s">
         <v>166</v>
       </c>
@@ -8041,7 +8155,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13">
       <c r="A175" s="4" t="s">
         <v>167</v>
       </c>
@@ -8081,7 +8195,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="176" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" customFormat="1">
       <c r="A176" t="s">
         <v>171</v>
       </c>
@@ -8119,9 +8233,9 @@
       <c r="L176" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="M176" s="8"/>
-    </row>
-    <row r="177" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M176" s="3"/>
+    </row>
+    <row r="177" spans="1:16" customFormat="1">
       <c r="A177" t="s">
         <v>173</v>
       </c>
@@ -8159,9 +8273,9 @@
       <c r="L177" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="M177" s="8"/>
-    </row>
-    <row r="178" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M177" s="3"/>
+    </row>
+    <row r="178" spans="1:16" customFormat="1">
       <c r="A178" t="s">
         <v>174</v>
       </c>
@@ -8199,9 +8313,9 @@
       <c r="L178" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="M178" s="8"/>
-    </row>
-    <row r="179" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M178" s="3"/>
+    </row>
+    <row r="179" spans="1:16" customFormat="1">
       <c r="A179" t="s">
         <v>175</v>
       </c>
@@ -8239,9 +8353,9 @@
       <c r="L179" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="M179" s="8"/>
-    </row>
-    <row r="180" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M179" s="3"/>
+    </row>
+    <row r="180" spans="1:16" customFormat="1">
       <c r="A180" t="s">
         <v>177</v>
       </c>
@@ -8279,9 +8393,9 @@
       <c r="L180" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="M180" s="8"/>
-    </row>
-    <row r="181" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M180" s="3"/>
+    </row>
+    <row r="181" spans="1:16" customFormat="1">
       <c r="A181" t="s">
         <v>179</v>
       </c>
@@ -8319,9 +8433,9 @@
       <c r="L181" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="M181" s="8"/>
-    </row>
-    <row r="182" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M181" s="3"/>
+    </row>
+    <row r="182" spans="1:16" customFormat="1">
       <c r="A182" t="s">
         <v>180</v>
       </c>
@@ -8359,13 +8473,586 @@
       <c r="L182" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="M182" s="8"/>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="K183" s="9"/>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="K184" s="9"/>
+      <c r="M182" s="3"/>
+    </row>
+    <row r="183" spans="1:16">
+      <c r="A183" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="B183" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="C183" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="D183" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E183" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F183" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G183" s="14">
+        <v>2</v>
+      </c>
+      <c r="H183" s="15">
+        <v>1219</v>
+      </c>
+      <c r="I183" s="14">
+        <v>0</v>
+      </c>
+      <c r="J183" s="16">
+        <v>8000</v>
+      </c>
+      <c r="K183" s="9">
+        <v>44945</v>
+      </c>
+      <c r="L183" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="N183" s="11"/>
+      <c r="O183" s="11"/>
+      <c r="P183" s="11"/>
+    </row>
+    <row r="184" spans="1:16">
+      <c r="A184" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="B184" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="C184" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="D184" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E184" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F184" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G184" s="14">
+        <v>2</v>
+      </c>
+      <c r="H184" s="15">
+        <v>1219</v>
+      </c>
+      <c r="I184" s="14">
+        <v>0</v>
+      </c>
+      <c r="J184" s="16">
+        <v>9000</v>
+      </c>
+      <c r="K184" s="9">
+        <v>44945</v>
+      </c>
+      <c r="L184" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="N184" s="11"/>
+      <c r="O184" s="11"/>
+      <c r="P184" s="11"/>
+    </row>
+    <row r="185" spans="1:16">
+      <c r="A185" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="B185" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C185" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="D185" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E185" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F185" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G185" s="14">
+        <v>2.6</v>
+      </c>
+      <c r="H185" s="15">
+        <v>1219</v>
+      </c>
+      <c r="I185" s="14">
+        <v>0</v>
+      </c>
+      <c r="J185" s="16">
+        <v>7500</v>
+      </c>
+      <c r="K185" s="9">
+        <v>44945</v>
+      </c>
+      <c r="L185" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="N185" s="11"/>
+      <c r="O185" s="11"/>
+      <c r="P185" s="11"/>
+    </row>
+    <row r="186" spans="1:16">
+      <c r="A186" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B186" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C186" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="D186" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E186" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F186" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G186" s="14">
+        <v>2.6</v>
+      </c>
+      <c r="H186" s="15">
+        <v>1219</v>
+      </c>
+      <c r="I186" s="14">
+        <v>0</v>
+      </c>
+      <c r="J186" s="16">
+        <v>9500</v>
+      </c>
+      <c r="K186" s="9">
+        <v>44945</v>
+      </c>
+      <c r="L186" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="N186" s="11"/>
+      <c r="O186" s="11"/>
+      <c r="P186" s="11"/>
+    </row>
+    <row r="187" spans="1:16">
+      <c r="A187" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B187" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="C187" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="D187" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E187" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F187" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G187" s="14">
+        <v>1.6</v>
+      </c>
+      <c r="H187" s="15">
+        <v>1219</v>
+      </c>
+      <c r="I187" s="14">
+        <v>0</v>
+      </c>
+      <c r="J187" s="16">
+        <v>7000</v>
+      </c>
+      <c r="K187" s="9">
+        <v>44945</v>
+      </c>
+      <c r="L187" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="N187" s="11"/>
+      <c r="O187" s="11"/>
+      <c r="P187" s="11"/>
+    </row>
+    <row r="188" spans="1:16">
+      <c r="A188" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="B188" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="C188" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="D188" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E188" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F188" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G188" s="14">
+        <v>1.6</v>
+      </c>
+      <c r="H188" s="15">
+        <v>1219</v>
+      </c>
+      <c r="I188" s="14">
+        <v>0</v>
+      </c>
+      <c r="J188" s="16">
+        <v>8000</v>
+      </c>
+      <c r="K188" s="9">
+        <v>44945</v>
+      </c>
+      <c r="L188" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="N188" s="11"/>
+      <c r="O188" s="11"/>
+      <c r="P188" s="11"/>
+    </row>
+    <row r="189" spans="1:16">
+      <c r="A189" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="B189" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C189" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="D189" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E189" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F189" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G189" s="14">
+        <v>2</v>
+      </c>
+      <c r="H189" s="15">
+        <v>1219</v>
+      </c>
+      <c r="I189" s="14">
+        <v>0</v>
+      </c>
+      <c r="J189" s="16">
+        <v>10000</v>
+      </c>
+      <c r="K189" s="9">
+        <v>44945</v>
+      </c>
+      <c r="L189" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="N189" s="11"/>
+      <c r="O189" s="11"/>
+      <c r="P189" s="11"/>
+    </row>
+    <row r="190" spans="1:16">
+      <c r="A190" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="B190" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C190" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="D190" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E190" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F190" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G190" s="14">
+        <v>2</v>
+      </c>
+      <c r="H190" s="15">
+        <v>1219</v>
+      </c>
+      <c r="I190" s="14">
+        <v>0</v>
+      </c>
+      <c r="J190" s="16">
+        <v>9000</v>
+      </c>
+      <c r="K190" s="9">
+        <v>44945</v>
+      </c>
+      <c r="L190" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="N190" s="11"/>
+      <c r="O190" s="11"/>
+      <c r="P190" s="11"/>
+    </row>
+    <row r="191" spans="1:16">
+      <c r="A191" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B191" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C191" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="D191" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E191" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F191" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G191" s="14">
+        <v>2</v>
+      </c>
+      <c r="H191" s="15">
+        <v>1219</v>
+      </c>
+      <c r="I191" s="14">
+        <v>0</v>
+      </c>
+      <c r="J191" s="16">
+        <v>9500</v>
+      </c>
+      <c r="K191" s="9">
+        <v>44945</v>
+      </c>
+      <c r="L191" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="N191" s="11"/>
+      <c r="O191" s="11"/>
+      <c r="P191" s="11"/>
+    </row>
+    <row r="192" spans="1:16">
+      <c r="A192" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B192" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C192" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="D192" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E192" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F192" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G192" s="14">
+        <v>1</v>
+      </c>
+      <c r="H192" s="15">
+        <v>1219</v>
+      </c>
+      <c r="I192" s="14">
+        <v>0</v>
+      </c>
+      <c r="J192" s="16">
+        <v>6000</v>
+      </c>
+      <c r="K192" s="9">
+        <v>44945</v>
+      </c>
+      <c r="L192" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="N192" s="11"/>
+      <c r="O192" s="11"/>
+      <c r="P192" s="11"/>
+    </row>
+    <row r="193" spans="1:16">
+      <c r="A193" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B193" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="C193" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="D193" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E193" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F193" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G193" s="14">
+        <v>1</v>
+      </c>
+      <c r="H193" s="15">
+        <v>1219</v>
+      </c>
+      <c r="I193" s="14">
+        <v>0</v>
+      </c>
+      <c r="J193" s="16">
+        <v>8000</v>
+      </c>
+      <c r="K193" s="9">
+        <v>44945</v>
+      </c>
+      <c r="L193" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="N193" s="11"/>
+      <c r="O193" s="11"/>
+      <c r="P193" s="11"/>
+    </row>
+    <row r="194" spans="1:16">
+      <c r="A194" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="B194" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="C194" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="D194" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E194" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F194" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G194" s="14">
+        <v>1</v>
+      </c>
+      <c r="H194" s="15">
+        <v>1219</v>
+      </c>
+      <c r="I194" s="14">
+        <v>0</v>
+      </c>
+      <c r="J194" s="16">
+        <v>9000</v>
+      </c>
+      <c r="K194" s="9">
+        <v>44945</v>
+      </c>
+      <c r="L194" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="N194" s="11"/>
+      <c r="O194" s="11"/>
+      <c r="P194" s="11"/>
+    </row>
+    <row r="195" spans="1:16">
+      <c r="A195" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="B195" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C195" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="D195" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E195" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F195" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G195" s="14">
+        <v>2</v>
+      </c>
+      <c r="H195" s="15">
+        <v>1219</v>
+      </c>
+      <c r="I195" s="14">
+        <v>0</v>
+      </c>
+      <c r="J195" s="16">
+        <v>7500</v>
+      </c>
+      <c r="K195" s="9">
+        <v>44945</v>
+      </c>
+      <c r="L195" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="N195" s="11"/>
+      <c r="O195" s="11"/>
+      <c r="P195" s="11"/>
+    </row>
+    <row r="196" spans="1:16">
+      <c r="A196" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="B196" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C196" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="D196" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E196" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F196" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G196" s="14">
+        <v>2</v>
+      </c>
+      <c r="H196" s="15">
+        <v>1219</v>
+      </c>
+      <c r="I196" s="14">
+        <v>0</v>
+      </c>
+      <c r="J196" s="16">
+        <v>8000</v>
+      </c>
+      <c r="K196" s="9">
+        <v>44945</v>
+      </c>
+      <c r="L196" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="N196" s="11"/>
+      <c r="O196" s="11"/>
+      <c r="P196" s="11"/>
+    </row>
+    <row r="197" spans="1:16">
+      <c r="N197" s="11"/>
+      <c r="O197" s="11"/>
+      <c r="P197" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M175" xr:uid="{3DFE70BD-6B54-4DE4-BF4E-0C04440D7440}"/>
